--- a/Assignment 5/Assignment 5.xlsx
+++ b/Assignment 5/Assignment 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipadhu/Documents/GitHub/CSEN383/Assignment 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9F3B8-E2A0-8C47-9497-64710192829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759868A1-94AA-EF4A-9501-9F0EF47DA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -382,11 +382,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -396,9 +434,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +471,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,39 +708,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="26" width="8" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2" customWidth="1"/>
+    <col min="21" max="27" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="86" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -702,651 +761,759 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="2:19" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="2:20" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="2:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="2:19" s="3" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="2:20" s="2" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
+      <c r="N7" s="1"/>
+      <c r="O7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B6" s="9">
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="8">
         <v>2255</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9">
+      <c r="D8" s="9"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8">
         <v>2255</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="9">
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8">
         <v>2255</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="9">
+      <c r="J8" s="9"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8">
         <v>2255</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="9">
+      <c r="M8" s="9"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="8">
         <v>2255</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="9">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="8">
         <v>2255</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+      <c r="S8" s="9"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="3">
         <v>2055</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" ref="C7:C16" si="0">ABS(B6-B7)</f>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D18" si="0">ABS(C8-C9)</f>
         <v>200</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4">
+      <c r="E9" s="1"/>
+      <c r="F9" s="3">
         <v>2304</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F16" si="1">ABS(E7-E6)</f>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G18" si="1">ABS(F9-F8)</f>
         <v>49</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
         <v>2304</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" ref="I7:I10" si="2">ABS(H7-H6)</f>
+      <c r="J9" s="4">
+        <f t="shared" ref="J9:J12" si="2">ABS(I9-I8)</f>
         <v>49</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4">
+      <c r="K9" s="1"/>
+      <c r="L9" s="3">
         <v>2304</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" ref="L7:L16" si="3">ABS(K7-K6)</f>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M18" si="3">ABS(L9-L8)</f>
         <v>49</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4">
+      <c r="N9" s="1"/>
+      <c r="O9" s="3">
         <v>2304</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" ref="O7:O10" si="4">ABS(N7-N6)</f>
+      <c r="P9" s="4">
+        <f t="shared" ref="P9:P12" si="4">ABS(O9-O8)</f>
         <v>49</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="3">
         <v>2304</v>
       </c>
-      <c r="R7" s="5">
-        <f t="shared" ref="R7:R16" si="5">ABS(Q7-Q6)</f>
+      <c r="S9" s="4">
+        <f t="shared" ref="S9:S18" si="5">ABS(R9-R8)</f>
         <v>49</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
+      <c r="T9" s="26"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="3">
         <v>1175</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4">
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
         <v>2055</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4">
+      <c r="H10" s="1"/>
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4">
+      <c r="K10" s="1"/>
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4">
+      <c r="N10" s="1"/>
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P10" s="4">
         <f t="shared" si="4"/>
         <v>396</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="4">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S10" s="4">
         <f t="shared" si="5"/>
         <v>396</v>
       </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="3">
         <v>2304</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>1129</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4">
+      <c r="E11" s="1"/>
+      <c r="F11" s="3">
         <v>1680</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4">
+      <c r="H11" s="1"/>
+      <c r="I11" s="3">
         <v>3692</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="2"/>
         <v>992</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4">
+      <c r="K11" s="1"/>
+      <c r="L11" s="3">
         <v>3692</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="3"/>
         <v>992</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4">
+      <c r="N11" s="1"/>
+      <c r="O11" s="3">
         <v>3692</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P11" s="4">
         <f t="shared" si="4"/>
         <v>992</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="4">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="3">
         <v>3692</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S11" s="4">
         <f t="shared" si="5"/>
         <v>992</v>
       </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
+      <c r="T11" s="26"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="3">
         <v>2700</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4">
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
         <v>1401</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4">
+      <c r="H12" s="1"/>
+      <c r="I12" s="3">
         <v>4922</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="2"/>
         <v>1230</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4">
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
         <v>4922</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="3"/>
         <v>1230</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4">
+      <c r="N12" s="1"/>
+      <c r="O12" s="3">
         <v>4922</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="4"/>
         <v>1230</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="4">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="3">
         <v>4922</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S12" s="4">
         <f t="shared" si="5"/>
         <v>1230</v>
       </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="3">
         <v>513</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>2187</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4">
+      <c r="E13" s="1"/>
+      <c r="F13" s="3">
         <v>1175</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4">
+      <c r="H13" s="1"/>
+      <c r="I13" s="3">
         <v>2055</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J13" s="5">
         <v>3021</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4">
+      <c r="K13" s="1"/>
+      <c r="L13" s="3">
         <v>2055</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="3"/>
         <v>2867</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4">
+      <c r="N13" s="1"/>
+      <c r="O13" s="3">
         <v>256</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P13" s="5">
         <v>5332</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="4">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="3">
         <v>256</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S13" s="5">
         <f t="shared" si="5"/>
         <v>4666</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
+      <c r="T13" s="23"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="22"/>
+      <c r="C14" s="3">
         <v>1680</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>1167</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4">
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
         <v>513</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>662</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4">
+      <c r="H14" s="1"/>
+      <c r="I14" s="3">
         <v>1680</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" ref="I12:I16" si="6">ABS(H12-H11)</f>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14:J18" si="6">ABS(I14-I13)</f>
         <v>375</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="4">
+      <c r="K14" s="1"/>
+      <c r="L14" s="3">
         <v>1680</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4">
+      <c r="N14" s="1"/>
+      <c r="O14" s="3">
         <v>513</v>
       </c>
-      <c r="O12" s="5">
-        <f t="shared" ref="O12:O16" si="7">ABS(N12-N11)</f>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P18" si="7">ABS(O14-O13)</f>
         <v>257</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3">
         <v>513</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S14" s="4">
         <f t="shared" si="5"/>
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="3">
         <v>256</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>1424</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4">
+      <c r="E15" s="1"/>
+      <c r="F15" s="3">
         <v>256</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4">
+      <c r="H15" s="1"/>
+      <c r="I15" s="3">
         <v>1401</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J15" s="4">
         <f t="shared" si="6"/>
         <v>279</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4">
+      <c r="K15" s="1"/>
+      <c r="L15" s="3">
         <v>1401</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="3"/>
         <v>279</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4">
+      <c r="N15" s="1"/>
+      <c r="O15" s="3">
         <v>1175</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P15" s="4">
         <f t="shared" si="7"/>
         <v>662</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="4">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3">
         <v>1175</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S15" s="4">
         <f t="shared" si="5"/>
         <v>662</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="3">
         <v>1401</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>1145</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4">
+      <c r="E16" s="1"/>
+      <c r="F16" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>2444</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4">
+      <c r="H16" s="1"/>
+      <c r="I16" s="3">
         <v>1175</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J16" s="4">
         <f t="shared" si="6"/>
         <v>226</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="4">
+      <c r="K16" s="1"/>
+      <c r="L16" s="3">
         <v>1175</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="4">
+      <c r="N16" s="1"/>
+      <c r="O16" s="3">
         <v>1401</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P16" s="4">
         <f t="shared" si="7"/>
         <v>226</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="4">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3">
         <v>1401</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S16" s="4">
         <f t="shared" si="5"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="3">
         <v>4922</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>3521</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4">
+      <c r="E17" s="1"/>
+      <c r="F17" s="3">
         <v>3692</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4">
+      <c r="H17" s="1"/>
+      <c r="I17" s="3">
         <v>513</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J17" s="4">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4">
+      <c r="K17" s="1"/>
+      <c r="L17" s="3">
         <v>513</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="3"/>
         <v>662</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="4">
+      <c r="N17" s="1"/>
+      <c r="O17" s="3">
         <v>1680</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P17" s="4">
         <f t="shared" si="7"/>
         <v>279</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="4">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="3">
         <v>1680</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S17" s="4">
         <f t="shared" si="5"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7">
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="6">
         <v>3692</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7">
+      <c r="E18" s="1"/>
+      <c r="F18" s="6">
         <v>4922</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>1230</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="7">
+      <c r="H18" s="1"/>
+      <c r="I18" s="6">
         <v>256</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J18" s="7">
         <f t="shared" si="6"/>
         <v>257</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="7">
+      <c r="K18" s="1"/>
+      <c r="L18" s="6">
         <v>256</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="7">
+      <c r="N18" s="1"/>
+      <c r="O18" s="6">
         <v>2055</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P18" s="7">
         <f t="shared" si="7"/>
         <v>375</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="7">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="6">
         <v>2055</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S18" s="7">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15">
-        <f xml:space="preserve"> SUM(C7:C16)</f>
+      <c r="D19" s="13">
+        <f xml:space="preserve"> SUM(D9:D18)</f>
         <v>13279</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="15">
-        <f>SUM(F7:F16)</f>
+      <c r="G19" s="13">
+        <f>SUM(G9:G18)</f>
         <v>6763</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="16" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="15">
-        <f>SUM(I7:I16)</f>
+      <c r="J19" s="13">
+        <f>SUM(J9:J18)</f>
         <v>7487</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="16" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="15">
-        <f xml:space="preserve"> SUM(L7:L16)</f>
+      <c r="M19" s="13">
+        <f xml:space="preserve"> SUM(M9:M18)</f>
         <v>7333</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="16" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="15">
-        <f>SUM(O7:O16)</f>
+      <c r="P19" s="13">
+        <f>SUM(P9:P18)</f>
         <v>9798</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16" t="s">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="15">
-        <f>SUM(R7:R16)</f>
+      <c r="S19" s="13">
+        <f>SUM(S9:S18)</f>
         <v>9132</v>
       </c>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="C3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="66" orientation="landscape"/>
 </worksheet>
 </file>
--- a/Assignment 5/Assignment 5.xlsx
+++ b/Assignment 5/Assignment 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipadhu/Documents/GitHub/CSEN383/Assignment 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759868A1-94AA-EF4A-9501-9F0EF47DA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1199ED-4D19-2040-99C9-389B38DC6FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     </r>
   </si>
   <si>
-    <t>Assuming current position of head to be at 2255, calculating cylinder movements for other requests</t>
+    <t>Considering current position of head to be at 2255, calculating cylinder movements for other requests</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:S3"/>
+      <selection activeCell="C5" sqref="C5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
